--- a/Arcpy_Conversions.xlsx
+++ b/Arcpy_Conversions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\Engineering_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381B79A-E46E-4BAA-B706-B5E19B15AF26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DFD320-35E1-496A-89EB-C1EA4CB79450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="435" windowWidth="22830" windowHeight="14115" xr2:uid="{DB3DCD11-7415-4489-B101-CE405B0F8322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB3DCD11-7415-4489-B101-CE405B0F8322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Tool</t>
   </si>
@@ -183,9 +183,6 @@
     <t>arcpy</t>
   </si>
   <si>
-    <t>Check all license checkouts for AddMsgAndPrint and change to AddError</t>
-  </si>
-  <si>
     <t>Updated conversions and method to Times (from Divide). Use to prep odd Z data for project or CAD.</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>Combined Clip/Merge Adjacent Soils and Clip/Merge Adjacent CLU and renamed the tool.</t>
-  </si>
-  <si>
-    <t>Check for additional overwriteouput entries in all tools</t>
   </si>
   <si>
     <t>No RasterCalculator in arcpy.sa module. Had to breakout steps for filling edge gaps between DEMs</t>
@@ -245,6 +239,21 @@
   </si>
   <si>
     <t>Disregard 3D Area output of SurfaceVolume function</t>
+  </si>
+  <si>
+    <t>Updated slope input to formula to degrees; adopted ACPF SPI formula (minus TauDEM steps).</t>
+  </si>
+  <si>
+    <t>Updated formula for CTI, changed slope to degrees and computation to radians. Still doesn't match ACPF formula.</t>
+  </si>
+  <si>
+    <t>Formula for TPI was reversed. Corrected and updated layer file.</t>
+  </si>
+  <si>
+    <t>Map Help</t>
+  </si>
+  <si>
+    <t>Pro Help</t>
   </si>
 </sst>
 </file>
@@ -277,13 +286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,10 +334,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,11 +664,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED956961-D896-49E7-973B-1835953B4B1D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +677,12 @@
     <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -690,522 +698,615 @@
       <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10" t="s">
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10" t="s">
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arcpy_Conversions.xlsx
+++ b/Arcpy_Conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\Engineering_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DFD320-35E1-496A-89EB-C1EA4CB79450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6731B7-0FD5-43D4-BD04-217B57BA729B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB3DCD11-7415-4489-B101-CE405B0F8322}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>Tool</t>
   </si>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,12 +287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,10 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -668,7 +658,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +688,10 @@
       <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1210,15 +1200,17 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
